--- a/rest-client/assets/dummy_sangyoi.xlsx
+++ b/rest-client/assets/dummy_sangyoi.xlsx
@@ -1155,13 +1155,13 @@
     <t xml:space="preserve">âaaaaaa</t>
   </si>
   <si>
-    <t xml:space="preserve">111111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1111</t>
+    <t xml:space="preserve">mTOpVWnWRc-I2yNH9AHIEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKq_NkdDRO2ZyijjWATexQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8F5vx2mNOTUKzVVnnyHLagS1rTkTSkgJ</t>
   </si>
   <si>
     <t xml:space="preserve">a@lll.cacc</t>
@@ -1299,7 +1299,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1337,6 +1337,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1420,10 +1424,10 @@
   </sheetPr>
   <dimension ref="A1:AV1005"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
+      <selection pane="topLeft" activeCell="AM1" activeCellId="0" sqref="AM1"/>
+      <selection pane="bottomLeft" activeCell="AS4" activeCellId="0" sqref="AS4:AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1970,13 +1974,13 @@
       <c r="AQ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AS4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AT4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AU4" s="10" t="s">
         <v>87</v>
       </c>
       <c r="AV4" s="9" t="s">
